--- a/data/TBEP_Funding_Sources_2016-2018_v20190107.xlsx
+++ b/data/TBEP_Funding_Sources_2016-2018_v20190107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rprojects\TBEP_Funding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D40D07-AA6B-4B91-93A4-0E862E8BFFD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514AF7E-495E-46AD-9999-C2F37E47D54C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="9600" activeTab="4" xr2:uid="{FA6988C6-5DA2-46AD-A097-2C9F9922665D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="9600" xr2:uid="{FA6988C6-5DA2-46AD-A097-2C9F9922665D}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="35">
   <si>
     <t>City Cash</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Pasco Co.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Leveraging</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -292,6 +298,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,7 +982,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1903000</c:v>
@@ -1825,7 +1835,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -2398,6 +2408,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-1272-4CF4-89F5-4D4594C02A38}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2661,7 +2676,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -3514,7 +3529,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -4165,7 +4180,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-3.8925800941548974E-2"/>
-                  <c:y val="2.0420715703220023E-2"/>
+                  <c:y val="3.0176813264195516E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -4355,7 +4370,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -5006,7 +5021,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-3.8925800941548974E-2"/>
-                  <c:y val="2.0420715703220023E-2"/>
+                  <c:y val="3.0176813264195516E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -5196,7 +5211,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -6037,7 +6052,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -6687,8 +6702,8 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.8583593717452064E-2"/>
-                  <c:y val="4.6445169963510655E-3"/>
+                  <c:x val="-3.4932800066658415E-2"/>
+                  <c:y val="1.7652647077651878E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -6890,7 +6905,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -7731,7 +7746,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -8572,7 +8587,7 @@
                   <c:v>1616909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>147579</c:v>
+                  <c:v>1553462</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1903000</c:v>
@@ -14404,8 +14419,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171336</xdr:rowOff>
     </xdr:to>
@@ -14423,7 +14438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4229100" y="4152900"/>
-          <a:ext cx="3733800" cy="342786"/>
+          <a:ext cx="4076700" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14456,7 +14471,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -14472,7 +14487,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$8</a:t>
+            <a:t>$8.52</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -14654,7 +14669,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -14670,7 +14685,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$298</a:t>
+            <a:t>$326</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -14852,7 +14867,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -14868,7 +14883,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$34</a:t>
+            <a:t>$37</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15050,7 +15065,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15066,7 +15081,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$494</a:t>
+            <a:t>$540</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15248,7 +15263,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15264,7 +15279,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$56</a:t>
+            <a:t>$61</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15446,7 +15461,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15462,7 +15477,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$56</a:t>
+            <a:t>$61</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15644,7 +15659,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15660,7 +15675,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$129</a:t>
+            <a:t>$141</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15842,7 +15857,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15858,7 +15873,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$190</a:t>
+            <a:t>$208</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -16040,7 +16055,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -16056,7 +16071,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$138</a:t>
+            <a:t>$151</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -16238,7 +16253,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$14.81</a:t>
+            <a:t>$16.21</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -16254,7 +16269,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$106</a:t>
+            <a:t>$116</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -16576,8 +16591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1E8E95-0C1B-4D52-B379-1283BC2041C5}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16597,8 +16612,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$15)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D14" si="0">(B1/$B$15)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16612,8 +16627,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$15)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16627,8 +16642,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$15)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16642,8 +16657,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>(B4/$B$15)</f>
-        <v>4.5613657216019017E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1658052827509985E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16657,8 +16672,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$15)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16672,8 +16687,8 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <f>(B6/$B$15)</f>
-        <v>0.10591360555086204</v>
+        <f t="shared" si="0"/>
+        <v>9.672880546049191E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16687,8 +16702,8 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$15)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16702,8 +16717,8 @@
         <v>11</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8/$B$15)</f>
-        <v>0.12009408536107846</v>
+        <f t="shared" si="0"/>
+        <v>0.10967955778135549</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16717,8 +16732,8 @@
         <v>12</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$15)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16732,8 +16747,8 @@
         <v>14</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$15)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16747,8 +16762,8 @@
         <v>15</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$15)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16762,8 +16777,8 @@
         <v>5</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$15)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16771,14 +16786,14 @@
         <v>7</v>
       </c>
       <c r="B13" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$15)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16792,14 +16807,26 @@
         <v>6</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$15)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="A15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="14">
         <f>SUM(B1:B14)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="16">
+        <f>B15/B14</f>
+        <v>8.5190748817656328</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16967,12 +16994,13 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A16" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16987,8 +17015,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17002,8 +17030,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17017,8 +17045,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17030,8 +17058,8 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>3.3580494662387161E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.0668402974019016E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17046,8 +17074,8 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>4.2255607749780301E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.8591212530108089E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17061,8 +17089,8 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17076,8 +17104,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>0.10591360555086204</v>
+        <f t="shared" si="0"/>
+        <v>9.672880546049191E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17091,8 +17119,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17106,8 +17134,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>0.12009408536107846</v>
+        <f t="shared" si="0"/>
+        <v>0.10967955778135549</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17121,8 +17149,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17136,8 +17164,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17151,8 +17179,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17166,8 +17194,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17175,14 +17203,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,14 +17224,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B4</f>
+        <v>326.06849494157166</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -17373,7 +17413,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17393,8 +17433,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17408,8 +17448,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17423,8 +17463,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17438,8 +17478,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>4.5613657216019017E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1658052827509985E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17453,8 +17493,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17468,8 +17508,8 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>0.10591360555086204</v>
+        <f t="shared" si="0"/>
+        <v>9.672880546049191E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17483,8 +17523,8 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17496,8 +17536,8 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>2.9454644026933423E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.6900345023388676E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17512,8 +17552,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>9.0639441334145032E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.2779212757966819E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17527,8 +17567,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17542,8 +17582,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17557,8 +17597,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17572,8 +17612,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17581,14 +17621,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17602,14 +17642,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B8</f>
+        <v>37.174244387220448</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -17779,7 +17831,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="A16" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17799,8 +17851,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17814,8 +17866,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17829,8 +17881,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17844,8 +17896,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>4.5613657216019017E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1658052827509985E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17859,8 +17911,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17874,8 +17926,8 @@
         <v>2</v>
       </c>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>0.10591360555086204</v>
+        <f t="shared" si="0"/>
+        <v>9.672880546049191E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17889,8 +17941,8 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17902,8 +17954,8 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>2.0262170193922138E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.8505040109828646E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17918,8 +17970,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>0.11806786834168624</v>
+        <f t="shared" si="0"/>
+        <v>0.10782905377037262</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17933,8 +17985,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17948,8 +18000,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17963,8 +18015,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17978,8 +18030,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17987,14 +18039,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18008,14 +18060,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B8</f>
+        <v>540.39331666666669</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -18185,7 +18249,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18205,8 +18269,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18220,8 +18284,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18235,8 +18299,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18250,8 +18314,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>4.5613657216019017E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1658052827509985E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18265,8 +18329,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18278,8 +18342,8 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>1.7879946844222713E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6329402544116092E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18294,8 +18358,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>8.8033658706639331E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0399402916375817E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18309,8 +18373,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18324,8 +18388,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>0.12009408536107846</v>
+        <f t="shared" si="0"/>
+        <v>0.10967955778135549</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18339,8 +18403,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18354,8 +18418,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18369,8 +18433,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18384,8 +18448,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18393,14 +18457,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18414,14 +18478,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B6</f>
+        <v>61.239227663006318</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -18590,8 +18666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAB5668-FE4B-42A2-8C10-8072D130CE6B}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18611,8 +18687,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18626,8 +18702,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18641,8 +18717,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18656,8 +18732,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>4.5613657216019017E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1658052827509985E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18671,8 +18747,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18684,8 +18760,8 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>1.7879946844222713E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6329402544116092E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18700,8 +18776,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>8.8033658706639331E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0399402916375817E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18715,8 +18791,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18730,8 +18806,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>0.12009408536107846</v>
+        <f t="shared" si="0"/>
+        <v>0.10967955778135549</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18745,8 +18821,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18760,8 +18836,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18775,8 +18851,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18790,8 +18866,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18799,14 +18875,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18820,14 +18896,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B6</f>
+        <v>61.239227663006318</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -18997,7 +19085,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19017,8 +19105,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19032,8 +19120,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19047,8 +19135,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19062,8 +19150,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>4.5613657216019017E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1658052827509985E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19077,8 +19165,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19090,8 +19178,8 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>7.7391359055685614E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.0680000699490514E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19106,8 +19194,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>9.8174469645293486E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.9660805390542858E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19121,8 +19209,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19136,8 +19224,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>0.12009408536107846</v>
+        <f t="shared" si="0"/>
+        <v>0.10967955778135549</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19151,8 +19239,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19166,8 +19254,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19181,8 +19269,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19196,8 +19284,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19205,14 +19293,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19226,14 +19314,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B6</f>
+        <v>141.48273770563338</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -19403,7 +19503,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19423,8 +19523,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19438,8 +19538,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19453,8 +19553,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19468,8 +19568,8 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>4.5613657216019017E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1658052827509985E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19483,8 +19583,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19496,8 +19596,8 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>5.2531702444762541E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.7976166988741749E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19512,8 +19612,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>0.1006604353063858</v>
+        <f t="shared" si="0"/>
+        <v>9.1931188761617738E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19527,8 +19627,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19542,8 +19642,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>0.12009408536107846</v>
+        <f t="shared" si="0"/>
+        <v>0.10967955778135549</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19557,8 +19657,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19572,8 +19672,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19587,8 +19687,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19602,8 +19702,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19611,14 +19711,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19632,14 +19732,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B6</f>
+        <v>208.43682660906683</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -19809,7 +19921,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19829,8 +19941,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19844,8 +19956,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19859,8 +19971,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19872,8 +19984,8 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>7.2600031210496158E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.6304175548186368E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19888,8 +20000,8 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>3.8353654094969401E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.502763527269135E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19903,8 +20015,8 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19918,8 +20030,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>0.10591360555086204</v>
+        <f t="shared" si="0"/>
+        <v>9.672880546049191E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19933,8 +20045,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19948,8 +20060,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>0.12009408536107846</v>
+        <f t="shared" si="0"/>
+        <v>0.10967955778135549</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19963,8 +20075,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19978,8 +20090,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19993,8 +20105,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20008,8 +20120,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20017,14 +20129,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20038,14 +20150,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B4</f>
+        <v>150.82006400535857</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -20215,12 +20339,13 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20235,8 +20360,8 @@
         <v>8</v>
       </c>
       <c r="D1" s="3">
-        <f>(B1/$B$16)</f>
-        <v>1.8151257303119332E-2</v>
+        <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
+        <v>1.6577185031186697E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20250,8 +20375,8 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <f>(B2/$B$16)</f>
-        <v>3.5309431874750878E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.2247407204857179E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20265,8 +20390,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <f>(B3/$B$16)</f>
-        <v>1.3147176670893693E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.200705695872935E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20278,8 +20403,8 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3">
-        <f>(B4/$B$16)</f>
-        <v>9.4652701843887885E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.6444444369053533E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20294,8 +20419,8 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f>(B5/$B$16)</f>
-        <v>3.614838703163023E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.3013608390604632E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20309,8 +20434,8 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <f>(B6/$B$16)</f>
-        <v>0.18266346429820809</v>
+        <f t="shared" si="0"/>
+        <v>0.16682293659010525</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20324,8 +20449,8 @@
         <v>2</v>
       </c>
       <c r="D7" s="3">
-        <f>(B7/$B$16)</f>
-        <v>0.10591360555086204</v>
+        <f t="shared" si="0"/>
+        <v>9.672880546049191E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20339,8 +20464,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <f>(B8/$B$16)</f>
-        <v>3.8492922744768961E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5154826581712907E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20354,8 +20479,8 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
-        <f>(B9/$B$16)</f>
-        <v>0.12009408536107846</v>
+        <f t="shared" si="0"/>
+        <v>0.10967955778135549</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20369,8 +20494,8 @@
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <f>(B10/$B$16)</f>
-        <v>0.11695108506116457</v>
+        <f t="shared" si="0"/>
+        <v>0.1068091176429859</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20384,8 +20509,8 @@
         <v>14</v>
       </c>
       <c r="D11" s="3">
-        <f>(B11/$B$16)</f>
-        <v>4.3968909320811045E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0155937038328163E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20399,8 +20524,8 @@
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <f>(B12/$B$16)</f>
-        <v>3.1990184464433524E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.92160040592656E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20414,8 +20539,8 @@
         <v>5</v>
       </c>
       <c r="D13" s="3">
-        <f>(B13/$B$16)</f>
-        <v>0.10920695115361484</v>
+        <f t="shared" si="0"/>
+        <v>9.9736552996476421E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20423,14 +20548,14 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <v>147579</v>
+        <v>1553462</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="3">
-        <f>(B14/$B$16)</f>
-        <v>9.9675693834961176E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.5822922063648758E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20444,14 +20569,26 @@
         <v>6</v>
       </c>
       <c r="D15" s="3">
-        <f>(B15/$B$16)</f>
-        <v>0.12852969959677943</v>
+        <f t="shared" si="0"/>
+        <v>0.11738363776334639</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>14805916.5</v>
+        <v>16211799.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B16/B4</f>
+        <v>115.68123403405117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/TBEP_Funding_Sources_2016-2018_v20190107.xlsx
+++ b/data/TBEP_Funding_Sources_2016-2018_v20190107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rprojects\TBEP_Funding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514AF7E-495E-46AD-9999-C2F37E47D54C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2D78FC-1E7F-4377-9ECA-704E0A3B856C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="9600" xr2:uid="{FA6988C6-5DA2-46AD-A097-2C9F9922665D}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="18105" windowHeight="14850" activeTab="7" xr2:uid="{FA6988C6-5DA2-46AD-A097-2C9F9922665D}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="36">
   <si>
     <t>City Cash</t>
   </si>
@@ -111,22 +116,10 @@
     <t>SWFWMD</t>
   </si>
   <si>
-    <t>Hillsborough Co.</t>
-  </si>
-  <si>
-    <t>St. Petersburg</t>
-  </si>
-  <si>
     <t>Tampa</t>
   </si>
   <si>
-    <t>Clearwater</t>
-  </si>
-  <si>
     <t>Tampa Bay Water</t>
-  </si>
-  <si>
-    <t>Pinellas Co.</t>
   </si>
   <si>
     <t>Manatee Co.</t>
@@ -140,11 +133,29 @@
   <si>
     <t>Leveraging</t>
   </si>
+  <si>
+    <t>State Grants</t>
+  </si>
+  <si>
+    <t>Clearwater ($50K)</t>
+  </si>
+  <si>
+    <t>Hills. Co. ($264K)</t>
+  </si>
+  <si>
+    <t>Pin. Co. ($264K)</t>
+  </si>
+  <si>
+    <t>St. Petersburg ($107K)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -258,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,6 +313,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,6 +323,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF0000"/>
       <color rgb="FFBC8FDD"/>
     </mruColors>
@@ -346,8 +359,11 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -357,25 +373,43 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800">
+              <a:rPr lang="en-US" sz="1600">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>TBEP Funding Sources (FY17,</a:t>
+              <a:t>TBEP Funding Sources (2017-20</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:rPr lang="en-US" sz="1600" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:latin typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t> 18, 19)</a:t>
+              <a:t>19)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1800">
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans Semibold" panose="020B0706030804020204" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -384,11 +418,11 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2222222222222223E-2"/>
-          <c:y val="6.5199674001629989E-3"/>
+          <c:x val="0.20455026455026454"/>
+          <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -400,8 +434,11 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -757,15 +794,42 @@
                   <c:y val="6.962118732713421E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{90F17307-DF19-4A3E-A233-A0049A664860}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{D8AAE6CC-293D-4422-8330-3A8BFE923774}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-77CC-48EB-AE41-EE89FB017905}"/>
                 </c:ext>
@@ -775,19 +839,46 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9415489730450439E-2"/>
-                  <c:y val="0.11778038747601538"/>
+                  <c:x val="0.11026704995208932"/>
+                  <c:y val="6.5620648274711368E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3EED62FE-7DE4-4C19-9083-8345F3DB8F23}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{DD2362D7-CED2-45A3-8758-DACBF134029C}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-77CC-48EB-AE41-EE89FB017905}"/>
                 </c:ext>
@@ -797,21 +888,572 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4933633295838019E-2"/>
-                  <c:y val="8.3779527559055114E-2"/>
+                  <c:x val="0.14284414448193974"/>
+                  <c:y val="0.10659941345962561"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E82DB7DE-2F3E-4EB5-A244-89BE10309527}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{E1C9BE3B-3A4D-44C4-9191-8F1372343A65}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.8415364746073486E-2"/>
+                  <c:y val="0.17155112334674544"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0B631504-94A8-4306-8076-B6404CF6C3A8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{83FEFED6-F515-4FA2-BB40-4C43535777BD}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13541390659500896"/>
+                  <c:y val="7.9668097722503453E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9AAD6967-D608-4179-934F-E32C1347209C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{6F331CAE-11C6-4379-861B-291D0901C348}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12881106528350622"/>
+                  <c:y val="-8.9948597501107105E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0B8A1AC2-61EB-4FC0-A5AD-84D7F6F165DA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{78F59A10-6926-4298-B8E3-FF605A7EDF27}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6099570886972463E-2"/>
+                  <c:y val="-4.6935294457385979E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{44272BEC-47F9-41B6-B4DC-65E15D7079DB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{4A97AB3C-C947-4789-8941-3695D6A0F310}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5575636378786065E-2"/>
+                  <c:y val="-0.1091198685738856"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C6EE96DF-0682-42F3-8A1F-40106924B4EB}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{A8C21E74-AA0A-4B3C-8AEF-84688C1590F7}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.1362413031704365E-2"/>
+                  <c:y val="-0.13957325016524535"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="600" spc="-50" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{C0E9AA0B-39DF-42FB-93A5-4737E5FE8A98}" type="CELLRANGE">
+                      <a:rPr lang="en-US" spc="-50" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1050" b="1" kern="600" spc="-50">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                          <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                          <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" spc="-50" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1050" b="1" kern="600" spc="-50">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{197E31C3-E31E-4F17-B66F-632069831453}" type="VALUE">
+                      <a:rPr lang="en-US" spc="-50" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1050" b="1" kern="600" spc="-50">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                          <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                          <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="600" spc="-50" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                      <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6631254426530018E-2"/>
+                  <c:y val="1.5425113425613854E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F1A0CAD0-141F-4EFF-926C-4FC5E8E8DDEE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{A880C8C2-1323-404D-8840-6CB61C525C3E}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0232054326542515E-3"/>
+                  <c:y val="-1.4245615386096299E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{10B5605C-E90C-4D21-8452-1E345DF9A31D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{9838BC97-E2F5-4966-BEE1-9172C7AAD728}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6344790234554014E-2"/>
+                  <c:y val="-2.19574020240135E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E13F422D-7B03-4F37-A52B-B3F92802A0FC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{825818F2-EB0B-4A15-9267-D84AD6C5B2AC}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-77CC-48EB-AE41-EE89FB017905}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -819,24 +1461,178 @@
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.2615506395033568E-3"/>
-                  <c:y val="3.0538859904125668E-2"/>
+                  <c:x val="3.1658376036328789E-2"/>
+                  <c:y val="5.0098762104614676E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="600" spc="-50" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{EDDFBCA2-6B1A-40D0-90C4-7EF84C64C9B7}" type="CELLRANGE">
+                      <a:rPr lang="en-US" spc="-50" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1050" b="1" kern="600" spc="-50">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                          <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                          <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" spc="-50" baseline="0"/>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1050" b="1" kern="600" spc="-50">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{630C1931-F3A1-48C0-9F7E-A79489F38655}" type="VALUE">
+                      <a:rPr lang="en-US" spc="-50" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1050" b="1" kern="600" spc="-50">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                          <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                          <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="600" spc="-50" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                      <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-77CC-48EB-AE41-EE89FB017905}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4569D3D6-883F-4C24-8FDB-8E32CFDD4C9E}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                  <a:p>
+                    <a:fld id="{58991972-08FD-4BE3-B6C5-316874EF4E8C}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-77CC-48EB-AE41-EE89FB017905}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -851,13 +1647,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="600" spc="-50" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Open Sans Light" panose="020B0306030504020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -865,11 +1661,13 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -886,7 +1684,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -922,7 +1722,7 @@
                   <c:v>Regional Match</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>State</c:v>
+                  <c:v>State Grants</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>State Match</c:v>
@@ -949,7 +1749,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -991,6 +1791,56 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Master!$D$1:$D$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>1.7%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.3%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16.7%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.7%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.5%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>11.0%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10.7%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.0%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.9%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>10.0%</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.6%</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11.7%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-77CC-48EB-AE41-EE89FB017905}"/>
             </c:ext>
@@ -1045,8 +1895,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.62329792109319671"/>
-          <c:y val="0.21430054739490081"/>
+          <c:x val="0.63599633379160936"/>
+          <c:y val="0.17518074299392283"/>
           <c:w val="0.35130525350997793"/>
           <c:h val="0.7538766211680753"/>
         </c:manualLayout>
@@ -1064,16 +1914,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1092,9 +1942,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -1155,7 +2003,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>TBEP Funding Sources (FY17,</a:t>
+              <a:t>TBEP Funding Sources (2017-2019</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" baseline="0">
@@ -1163,7 +2011,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> 18, 19)</a:t>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800">
               <a:solidFill>
@@ -1301,7 +2149,9 @@
             <c:explosion val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1632,8 +2482,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3006540849060534E-2"/>
-                  <c:y val="3.7169963510658731E-2"/>
+                  <c:x val="-1.5122942965462651E-2"/>
+                  <c:y val="3.7169963510658724E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1751,7 +2601,7 @@
                   <c:v>Private Match</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Clearwater</c:v>
+                  <c:v>Clearwater ($50K)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>City</c:v>
@@ -1799,7 +2649,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -1898,9 +2748,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64022913802441361"/>
-          <c:y val="0.21560796363869153"/>
-          <c:w val="0.32165679290088739"/>
+          <c:x val="0.63811273590801154"/>
+          <c:y val="0.15707137827283785"/>
+          <c:w val="0.33860684081156517"/>
           <c:h val="0.7843920363613085"/>
         </c:manualLayout>
       </c:layout>
@@ -1945,9 +2795,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -2640,7 +3488,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -3493,7 +4341,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -3702,7 +4550,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>TBEP Funding Sources (FY17,</a:t>
+              <a:t>TBEP Funding Sources (2017-2019</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" baseline="0">
@@ -3710,7 +4558,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> 18, 19)</a:t>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800">
               <a:solidFill>
@@ -3893,7 +4741,7 @@
             <c:explosion val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00FF00"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -4292,7 +5140,7 @@
                   <c:v>City Match</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Hillsborough Co.</c:v>
+                  <c:v>Hills. Co. ($264K)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>County</c:v>
@@ -4334,7 +5182,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -4480,9 +5328,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -4543,7 +5389,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>TBEP Funding Sources (FY17,</a:t>
+              <a:t>TBEP Funding Sources (2017-2019</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" baseline="0">
@@ -4551,7 +5397,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> 18, 19)</a:t>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800">
               <a:solidFill>
@@ -4734,7 +5580,7 @@
             <c:explosion val="13"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00FF00"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5133,7 +5979,7 @@
                   <c:v>City Match</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Pinellas Co.</c:v>
+                  <c:v>Pin. Co. ($264K)</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>County</c:v>
@@ -5148,7 +5994,7 @@
                   <c:v>Regional Match</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>State</c:v>
+                  <c:v>State Grants</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>State Match</c:v>
@@ -5175,7 +6021,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -5321,9 +6167,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -6016,7 +6860,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -6869,7 +7713,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -7078,7 +7922,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>TBEP Funding Sources (FY17,</a:t>
+              <a:t>TBEP Funding Sources (2017-2019</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" baseline="0">
@@ -7086,7 +7930,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> 18, 19)</a:t>
+              <a:t>)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800">
               <a:solidFill>
@@ -7224,7 +8068,7 @@
             <c:explosion val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="00FF00"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -7574,6 +8418,28 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2701995583885342E-2"/>
+                  <c:y val="-2.7030535817169195E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-A5F6-4245-B7BB-868B7678D6D7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
@@ -7662,7 +8528,7 @@
                   <c:v>Private Match</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>St. Petersburg</c:v>
+                  <c:v>St. Petersburg ($107K)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>City</c:v>
@@ -7710,7 +8576,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -7809,9 +8675,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64022913802441361"/>
-          <c:y val="0.21560796363869153"/>
-          <c:w val="0.32165679290088739"/>
+          <c:x val="0.60001749781277347"/>
+          <c:y val="0.18959170347608989"/>
+          <c:w val="0.39998250218722653"/>
           <c:h val="0.7843920363613085"/>
         </c:manualLayout>
       </c:layout>
@@ -7856,9 +8722,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -8551,7 +9415,7 @@
                   <c:v>268746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>522788.5</c:v>
+                  <c:v>529788.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>194656</c:v>
@@ -14355,15 +15219,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>191615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>12934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14391,8 +15255,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8162925" y="1047750"/>
-          <a:ext cx="1819275" cy="219075"/>
+          <a:off x="8239125" y="991715"/>
+          <a:ext cx="1838325" cy="221369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14414,13 +15278,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171336</xdr:rowOff>
     </xdr:to>
@@ -14437,8 +15301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4229100" y="4152900"/>
-          <a:ext cx="4076700" cy="342786"/>
+          <a:off x="4352925" y="4152900"/>
+          <a:ext cx="5753100" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14465,11 +15329,15 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1600">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>$16.21</a:t>
           </a:r>
@@ -14478,6 +15346,9 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> Million (</a:t>
           </a:r>
@@ -14486,6 +15357,9 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>$8.52</a:t>
           </a:r>
@@ -14494,13 +15368,19 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>:$1, 320 Fund Leveraging)</a:t>
+            <a:t>:$1, §320 Fund Leveraging)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:latin typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Open Sans" panose="020B0606030504020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -14554,14 +15434,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14589,7 +15469,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8162925" y="1047750"/>
+          <a:off x="8162925" y="914400"/>
           <a:ext cx="1819275" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15675,7 +16555,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>$141</a:t>
+            <a:t>$142</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -15938,14 +16818,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -15975,7 +16855,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8162925" y="1047750"/>
+          <a:off x="7924800" y="1047750"/>
           <a:ext cx="1819275" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16591,8 +17471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1E8E95-0C1B-4D52-B379-1283BC2041C5}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16611,9 +17491,9 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="17">
         <f t="shared" ref="D1:D14" si="0">(B1/$B$15)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16621,14 +17501,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="17">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16641,9 +17521,9 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="17">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16656,9 +17536,9 @@
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="17">
         <f t="shared" si="0"/>
-        <v>4.1658052827509985E-2</v>
+        <v>4.1640073298889968E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16671,9 +17551,9 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16686,9 +17566,9 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
-        <v>9.672880546049191E-2</v>
+        <v>9.6687057510021004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16701,9 +17581,9 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16716,9 +17596,9 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
-        <v>0.10967955778135549</v>
+        <v>0.10963222031322355</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16731,14 +17611,14 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>651000</v>
@@ -16746,9 +17626,9 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16761,9 +17641,9 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16776,9 +17656,9 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16791,9 +17671,9 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16806,27 +17686,27 @@
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="17">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="14">
         <f>SUM(B1:B14)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" s="16">
         <f>B15/B14</f>
-        <v>8.5190748817656328</v>
+        <v>8.5227532842879672</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16994,7 +17874,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B17"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17016,7 +17896,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17024,14 +17904,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17046,12 +17926,12 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
         <v>49719</v>
@@ -17059,7 +17939,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>3.0668402974019016E-3</v>
+        <v>3.065516655532982E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17075,7 +17955,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>3.8591212530108089E-2</v>
+        <v>3.8574556643356989E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17090,7 +17970,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17105,7 +17985,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>9.672880546049191E-2</v>
+        <v>9.6687057510021004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17120,7 +18000,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17135,7 +18015,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.10967955778135549</v>
+        <v>0.10963222031322355</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17150,7 +18030,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17165,7 +18045,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17180,7 +18060,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17195,7 +18075,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17210,7 +18090,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17225,25 +18105,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B4</f>
-        <v>326.06849494157166</v>
+        <v>326.20928618837871</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -17413,7 +18293,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17434,7 +18314,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17442,14 +18322,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17464,7 +18344,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17479,7 +18359,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.1658052827509985E-2</v>
+        <v>4.1640073298889968E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17494,7 +18374,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17509,7 +18389,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>9.672880546049191E-2</v>
+        <v>9.6687057510021004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17524,7 +18404,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17537,7 +18417,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>2.6900345023388676E-2</v>
+        <v>2.6888734890643418E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17553,7 +18433,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>8.2779212757966819E-2</v>
+        <v>8.2743485422580129E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17568,7 +18448,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17583,7 +18463,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17598,7 +18478,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17613,7 +18493,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17628,7 +18508,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17643,25 +18523,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B8</f>
-        <v>37.174244387220448</v>
+        <v>37.190295641167339</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -17831,7 +18711,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17852,7 +18732,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17860,14 +18740,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17882,7 +18762,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17897,7 +18777,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.1658052827509985E-2</v>
+        <v>4.1640073298889968E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17912,7 +18792,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17927,7 +18807,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>9.672880546049191E-2</v>
+        <v>9.6687057510021004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17942,12 +18822,12 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2">
         <v>30000</v>
@@ -17955,7 +18835,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>1.8505040109828646E-3</v>
+        <v>1.8497053373155022E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17971,7 +18851,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.10782905377037262</v>
+        <v>0.10778251497590804</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17986,7 +18866,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18001,7 +18881,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18016,7 +18896,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18031,7 +18911,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18046,7 +18926,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18061,25 +18941,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B8</f>
-        <v>540.39331666666669</v>
+        <v>540.62665000000004</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -18249,7 +19129,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18270,7 +19150,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18278,14 +19158,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18300,7 +19180,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18315,7 +19195,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.1658052827509985E-2</v>
+        <v>4.1640073298889968E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18330,12 +19210,12 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>264729</v>
@@ -18343,7 +19223,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1.6329402544116092E-2</v>
+        <v>1.6322354808073185E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18359,7 +19239,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>8.0399402916375817E-2</v>
+        <v>8.0364702701947829E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18374,7 +19254,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18389,7 +19269,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.10967955778135549</v>
+        <v>0.10963222031322355</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18404,7 +19284,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18419,7 +19299,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18434,7 +19314,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18449,7 +19329,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18464,7 +19344,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18479,25 +19359,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B6</f>
-        <v>61.239227663006318</v>
+        <v>61.265669798170961</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -18667,7 +19547,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18688,7 +19568,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18696,14 +19576,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18718,7 +19598,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18733,7 +19613,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.1658052827509985E-2</v>
+        <v>4.1640073298889968E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18748,12 +19628,12 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>264729</v>
@@ -18761,7 +19641,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>1.6329402544116092E-2</v>
+        <v>1.6322354808073185E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18777,7 +19657,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>8.0399402916375817E-2</v>
+        <v>8.0364702701947829E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18792,7 +19672,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18807,7 +19687,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.10967955778135549</v>
+        <v>0.10963222031322355</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18822,12 +19702,12 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2">
         <v>651000</v>
@@ -18837,7 +19717,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18852,7 +19732,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18867,7 +19747,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18882,7 +19762,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18897,25 +19777,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B6</f>
-        <v>61.239227663006318</v>
+        <v>61.265669798170961</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -19085,7 +19965,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19106,7 +19986,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19114,14 +19994,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19136,7 +20016,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19151,7 +20031,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.1658052827509985E-2</v>
+        <v>4.1640073298889968E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19166,12 +20046,12 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2">
         <v>114585</v>
@@ -19179,7 +20059,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>7.0680000699490514E-3</v>
+        <v>7.0649495358765611E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19195,7 +20075,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>8.9660805390542858E-2</v>
+        <v>8.9622107974144452E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19210,7 +20090,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19225,7 +20105,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.10967955778135549</v>
+        <v>0.10963222031322355</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19240,7 +20120,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19255,7 +20135,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19270,7 +20150,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19285,7 +20165,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19300,7 +20180,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19315,25 +20195,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B6</f>
-        <v>141.48273770563338</v>
+        <v>141.54382772614215</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -19503,7 +20383,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19524,7 +20404,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19532,14 +20412,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19554,7 +20434,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19569,7 +20449,7 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>4.1658052827509985E-2</v>
+        <v>4.1640073298889968E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19584,12 +20464,12 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
         <v>77778</v>
@@ -19597,7 +20477,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>4.7976166988741749E-3</v>
+        <v>4.7955460575241715E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19613,7 +20493,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>9.1931188761617738E-2</v>
+        <v>9.1891511452496841E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19628,7 +20508,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19643,7 +20523,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.10967955778135549</v>
+        <v>0.10963222031322355</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19658,7 +20538,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19673,7 +20553,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19688,7 +20568,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19703,7 +20583,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19718,7 +20598,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19733,25 +20613,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B6</f>
-        <v>208.43682660906683</v>
+        <v>208.52682635192471</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -19920,8 +20800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CA1B44-BB8E-48FE-BDC0-7F06C05A22CC}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19942,7 +20822,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19950,14 +20830,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19972,12 +20852,12 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>107491</v>
@@ -19985,7 +20865,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>6.6304175548186368E-3</v>
+        <v>6.6275558804460219E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20001,7 +20881,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>3.502763527269135E-2</v>
+        <v>3.5012517418443946E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20016,7 +20896,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20031,7 +20911,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>9.672880546049191E-2</v>
+        <v>9.6687057510021004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20046,7 +20926,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20061,7 +20941,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.10967955778135549</v>
+        <v>0.10963222031322355</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20076,7 +20956,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20091,7 +20971,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20106,7 +20986,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20121,7 +21001,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20136,7 +21016,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20151,25 +21031,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B4</f>
-        <v>150.82006400535857</v>
+        <v>150.88518573648025</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -20339,7 +21219,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20361,7 +21241,7 @@
       </c>
       <c r="D1" s="3">
         <f t="shared" ref="D1:D15" si="0">(B1/$B$16)</f>
-        <v>1.6577185031186697E-2</v>
+        <v>1.6570030352739733E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20369,14 +21249,14 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>522788.5</v>
+        <v>529788.5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" si="0"/>
-        <v>3.2247407204857179E-2</v>
+        <v>3.2665087203279132E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20391,12 +21271,12 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>1.200705695872935E-2</v>
+        <v>1.2001874738016213E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>140142</v>
@@ -20404,7 +21284,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>8.6444444369053533E-3</v>
+        <v>8.6407135127356382E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20420,7 +21300,7 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>3.3013608390604632E-2</v>
+        <v>3.2999359786154335E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20435,7 +21315,7 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0.16682293659010525</v>
+        <v>0.16675093615899253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20450,7 +21330,7 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>9.672880546049191E-2</v>
+        <v>9.6687057510021004E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20465,7 +21345,7 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>3.5154826581712907E-2</v>
+        <v>3.5139653831962103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20480,7 +21360,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0.10967955778135549</v>
+        <v>0.10963222031322355</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20495,7 +21375,7 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0.1068091176429859</v>
+        <v>0.10676301905082432</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20510,7 +21390,7 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>4.0155937038328163E-2</v>
+        <v>4.0138605819746397E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20525,7 +21405,7 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>2.92160040592656E-2</v>
+        <v>2.9203394492915459E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20540,7 +21420,7 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>9.9736552996476421E-2</v>
+        <v>9.9693506908449053E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20555,7 +21435,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>9.5822922063648758E-2</v>
+        <v>9.5781565090560489E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20570,25 +21450,25 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>0.11738363776334639</v>
+        <v>0.11733297523038003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="14">
         <f>SUM(B1:B15)</f>
-        <v>16211799.5</v>
+        <v>16218799.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="16">
         <f>B16/B4</f>
-        <v>115.68123403405117</v>
+        <v>115.73118337115211</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
